--- a/dados/empresas_correcao.xlsx
+++ b/dados/empresas_correcao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sesibahia-my.sharepoint.com/personal/jorge_sm_fieb_org_br/Documents/Documentos/Observatorio/Geo/Empresas_CIA/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="11_AD4D361C20488DEA4E38A0707C1D60765BDEDD90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5ED2F91-D580-4591-8172-89708A59C064}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="11_AD4D361C20488DEA4E38A0707C1D60765BDEDD90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEB5414B-550F-43C3-8C9F-0FD15F41EDA3}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2010" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>Brasil Asfaltos Ltda</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>Marmoraria Brasil</t>
-  </si>
-  <si>
-    <t>Sol Placas</t>
   </si>
   <si>
     <t>CSN Cimentos Brasil S/A</t>
@@ -662,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D27"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,7 +749,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="8" t="s">
@@ -763,97 +760,102 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>31</v>
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" t="s">
-        <v>13</v>
+      <c r="A15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>57</v>
+      <c r="A16" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>35</v>
+      <c r="A17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>38</v>
+      <c r="A18" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -861,44 +863,44 @@
         <v>45</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>50</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="L21" s="12"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -906,58 +908,58 @@
         <v>68</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="B25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>73</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>84</v>
+      <c r="D27" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -965,22 +967,19 @@
         <v>61</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>80</v>
-      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
@@ -991,22 +990,14 @@
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
